--- a/medicine/Psychotrope/3_Monts/3_Monts.xlsx
+++ b/medicine/Psychotrope/3_Monts/3_Monts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Trois Monts ou 3 Monts est une bière fabriquée à Saint-Sylvestre-Cappel par la brasserie 3 Monts, ex-de Saint-Sylvestre[note 1], dans le Nord, en France. 
 Les trois monts sont le mont Cassel, le mont des Cats et le mont des Récollets. Les trois entourent la brasserie.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,11 +555,13 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La 3 Monts est brassée selon une méthode ascendante[C'est-à-dire ?], avec des houblons flamands, puis fermentée avec des levures hautes[réf. nécessaire]. 
-La bière est conservée trois semaines à 0° ce qui en fait une bière de garde. Elle est ensuite filtrée après stabilisation[1].
-Bière des Flandres, la 3 Monts se déguste à température de cave flamande : entre 8 et 10 °C[2].
+La bière est conservée trois semaines à 0° ce qui en fait une bière de garde. Elle est ensuite filtrée après stabilisation.
+Bière des Flandres, la 3 Monts se déguste à température de cave flamande : entre 8 et 10 °C.
 </t>
         </is>
       </c>
